--- a/DMSGPT/src/fordNelspruit/cars.xlsx
+++ b/DMSGPT/src/fordNelspruit/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -35,15 +35,108 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Ford Ranger 2.0D Bi-Turbo Wildtrak 4X4 Double Cab Auto</t>
+  </si>
+  <si>
+    <t>UF8968</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>35 000 Km</t>
+  </si>
+  <si>
+    <t>R 829 900</t>
+  </si>
+  <si>
+    <t>Suzuki Fronx 1.5 GL Auto</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>10 000 Km</t>
+  </si>
+  <si>
+    <t>R 329 900</t>
+  </si>
+  <si>
+    <t>Renault Duster 1.5 dCi Prestige Auto</t>
+  </si>
+  <si>
+    <t>42 500 Km</t>
+  </si>
+  <si>
+    <t>R 299 900</t>
+  </si>
+  <si>
+    <t>Ford Ranger 2.0D XL HR Single-Cab</t>
+  </si>
+  <si>
+    <t>UF8977</t>
+  </si>
+  <si>
+    <t>3 000 Km</t>
+  </si>
+  <si>
+    <t>R 439 900</t>
+  </si>
+  <si>
+    <t>Ford Ranger 2.2 TDCi XLS Auto SuperCab</t>
+  </si>
+  <si>
+    <t>UF8972</t>
+  </si>
+  <si>
+    <t>75 100 Km</t>
+  </si>
+  <si>
+    <t>R 379 900</t>
+  </si>
+  <si>
+    <t>Toyota Hilux 2.8 GD-6 Raised Body Legend 4x4 Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UF8958</t>
+  </si>
+  <si>
+    <t>43 000 Km</t>
+  </si>
+  <si>
+    <t>R 749 900</t>
+  </si>
+  <si>
+    <t>Toyota Hilux 2.8 GD-6 Raised Body Legend Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UF8973</t>
+  </si>
+  <si>
+    <t>53 000 Km</t>
+  </si>
+  <si>
+    <t>R 689 900</t>
+  </si>
+  <si>
+    <t>Ford EcoSport 1.0 EcoBoost Titanium</t>
+  </si>
+  <si>
+    <t>UF8960</t>
+  </si>
+  <si>
+    <t>166 000 Km</t>
+  </si>
+  <si>
+    <t>R 169 900</t>
+  </si>
+  <si>
     <t>Toyota C-HR 1.2T Luxury Auto</t>
   </si>
   <si>
     <t>UF8963</t>
   </si>
   <si>
-    <t>Used</t>
-  </si>
-  <si>
     <t>36 500 Km</t>
   </si>
   <si>
@@ -53,9 +146,6 @@
     <t>Toyota Hilux 2.8 RD-6 RB Raider 4x4 Double-Cab Auto (mHev)</t>
   </si>
   <si>
-    <t>CON</t>
-  </si>
-  <si>
     <t>11 000 Km</t>
   </si>
   <si>
@@ -86,18 +176,6 @@
     <t>R 199 900</t>
   </si>
   <si>
-    <t>Ford EcoSport 1.0 EcoBoost Titanium</t>
-  </si>
-  <si>
-    <t>UF8941</t>
-  </si>
-  <si>
-    <t>37 000 Km</t>
-  </si>
-  <si>
-    <t>R 269 900</t>
-  </si>
-  <si>
     <t>Ford Ranger 2.0D Bi-Turbo Raptor 4x4 Auto Double-Cab</t>
   </si>
   <si>
@@ -110,18 +188,6 @@
     <t>R 649 900</t>
   </si>
   <si>
-    <t>Ford Ranger 2.0D XLT 4X4 Double Cab Auto</t>
-  </si>
-  <si>
-    <t>UF8948</t>
-  </si>
-  <si>
-    <t>2 500 Km</t>
-  </si>
-  <si>
-    <t>R 729 900</t>
-  </si>
-  <si>
     <t>Toyota Land Cruiser 76 4.5 D V8 Station Wagon</t>
   </si>
   <si>
@@ -143,9 +209,6 @@
     <t>145 000 Km</t>
   </si>
   <si>
-    <t>R 169 900</t>
-  </si>
-  <si>
     <t>Toyota Fortuner 2.8 GD-6 4x4</t>
   </si>
   <si>
@@ -167,114 +230,81 @@
     <t>R 539 900</t>
   </si>
   <si>
-    <t>Lexus NX 2.0T EX | 300 EX</t>
-  </si>
-  <si>
-    <t>UFCON</t>
-  </si>
-  <si>
-    <t>141 000 Km</t>
+    <t>Toyota Fortuner 2.4 GD-6 Raised Body Auto</t>
+  </si>
+  <si>
+    <t>UF8925</t>
+  </si>
+  <si>
+    <t>98 500 Km</t>
+  </si>
+  <si>
+    <t>R 489 900</t>
+  </si>
+  <si>
+    <t>Ford Ranger 2.0D XLT 4x4 Double-Cab</t>
+  </si>
+  <si>
+    <t>UF8917</t>
+  </si>
+  <si>
+    <t>55 000 Km</t>
+  </si>
+  <si>
+    <t>R 619 900</t>
+  </si>
+  <si>
+    <t>Ford Ranger 2.0D Bi-Turbo Wildtrak Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UF8931</t>
+  </si>
+  <si>
+    <t>1 500 Km</t>
+  </si>
+  <si>
+    <t>R 819 900</t>
+  </si>
+  <si>
+    <t>UF8918</t>
+  </si>
+  <si>
+    <t>37 500 Km</t>
+  </si>
+  <si>
+    <t>R 279 900</t>
+  </si>
+  <si>
+    <t>UF8891</t>
+  </si>
+  <si>
+    <t>100 000 Km</t>
+  </si>
+  <si>
+    <t>Ford Fiesta 1.0 Ecoboost Trend Auto 5-dr</t>
+  </si>
+  <si>
+    <t>UF8904</t>
+  </si>
+  <si>
+    <t>79 500 Km</t>
+  </si>
+  <si>
+    <t>R 249 900</t>
+  </si>
+  <si>
+    <t>Toyota RAV4 2.0 GX Auto</t>
+  </si>
+  <si>
+    <t>UF8880</t>
+  </si>
+  <si>
+    <t>94 000 Km</t>
   </si>
   <si>
     <t>R 349 900</t>
   </si>
   <si>
-    <t>Toyota Fortuner 2.4 GD-6 Raised Body Auto</t>
-  </si>
-  <si>
-    <t>UF8925</t>
-  </si>
-  <si>
-    <t>98 500 Km</t>
-  </si>
-  <si>
-    <t>R 489 900</t>
-  </si>
-  <si>
-    <t>Toyota Hilux 2.8 GD-6 Raider 4x4 Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UF8940</t>
-  </si>
-  <si>
-    <t>133 500 Km</t>
-  </si>
-  <si>
-    <t>R 589 900</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.0D XLT 4x4 Double-Cab</t>
-  </si>
-  <si>
-    <t>UF8917</t>
-  </si>
-  <si>
-    <t>55 000 Km</t>
-  </si>
-  <si>
-    <t>R 619 900</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.0D Bi-Turbo Wildtrak Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UF8931</t>
-  </si>
-  <si>
-    <t>1 500 Km</t>
-  </si>
-  <si>
-    <t>R 819 900</t>
-  </si>
-  <si>
-    <t>UF8918</t>
-  </si>
-  <si>
-    <t>37 500 Km</t>
-  </si>
-  <si>
-    <t>R 279 900</t>
-  </si>
-  <si>
-    <t>UF8891</t>
-  </si>
-  <si>
-    <t>100 000 Km</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.2 TDCi XL 4x4 Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UF8913</t>
-  </si>
-  <si>
-    <t>140 500 Km</t>
-  </si>
-  <si>
-    <t>R 389 900</t>
-  </si>
-  <si>
-    <t>Ford Fiesta 1.0 Ecoboost Trend Auto 5-dr</t>
-  </si>
-  <si>
-    <t>UF8904</t>
-  </si>
-  <si>
-    <t>79 500 Km</t>
-  </si>
-  <si>
-    <t>R 249 900</t>
-  </si>
-  <si>
-    <t>Toyota RAV4 2.0 GX Auto</t>
-  </si>
-  <si>
-    <t>UF8880</t>
-  </si>
-  <si>
-    <t>94 000 Km</t>
-  </si>
-  <si>
     <t>Ford Ranger 3.0D V6 Wildtrak AWD Double Cab Auto</t>
   </si>
   <si>
@@ -296,19 +326,7 @@
     <t>151 500 Km</t>
   </si>
   <si>
-    <t>R 259 900</t>
-  </si>
-  <si>
-    <t>Toyota Hilux 2.8 GD-6 Raider 4x4 Double-Cab</t>
-  </si>
-  <si>
-    <t>UF8849</t>
-  </si>
-  <si>
-    <t>133 300 Km</t>
-  </si>
-  <si>
-    <t>R 469 900</t>
+    <t>R 239 900</t>
   </si>
 </sst>
 </file>
@@ -359,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -393,7 +411,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0122222E7</v>
+        <v>1.0141997E7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -402,7 +420,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2020.0</v>
+        <v>2024.0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -416,7 +434,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0122086E7</v>
+        <v>1.0140845E7</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -439,56 +457,56 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0119531E7</v>
+        <v>1.0140801E7</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0140577E7</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.0114803E7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0140058E7</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0110608E7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -497,67 +515,67 @@
         <v>2021.0</v>
       </c>
       <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0138466E7</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.0099878E7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0138423E7</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="n">
-        <v>1.0099111E7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.013833E7</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.0093604E7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -566,67 +584,67 @@
         <v>2017.0</v>
       </c>
       <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0122222E7</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="n">
-        <v>1.0086651E7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0122086E7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="n">
-        <v>1.0086334E7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0119531E7</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.008132E7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -635,44 +653,44 @@
         <v>2022.0</v>
       </c>
       <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0114803E7</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="n">
-        <v>1.0073982E7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0099878E7</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.0073925E7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -681,90 +699,90 @@
         <v>2021.0</v>
       </c>
       <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
         <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0093604E7</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.0067669E7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0086651E7</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="n">
-        <v>1.0060361E7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0086334E7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="n">
-        <v>1.006031E7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0059101E7</v>
+        <v>1.008132E7</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -773,33 +791,33 @@
         <v>2022.0</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0045281E7</v>
+        <v>1.0073925E7</v>
       </c>
       <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>75</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -807,7 +825,7 @@
         <v>76</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0032575E7</v>
+        <v>1.0060361E7</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -816,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>2020.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
@@ -830,7 +848,7 @@
         <v>80</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0003844E7</v>
+        <v>1.006031E7</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
@@ -839,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>2021.0</v>
+        <v>2024.0</v>
       </c>
       <c r="F21" t="s">
         <v>82</v>
@@ -850,59 +868,59 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0059101E7</v>
+      </c>
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="n">
-        <v>9985395.0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>86</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0045281E7</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" t="n">
-        <v>9958365.0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F23" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" t="n">
-        <v>9934898.0</v>
+        <v>1.0003844E7</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -911,33 +929,79 @@
         <v>2021.0</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9985395.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="F25" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="n">
-        <v>9915332.0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>96</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="G25" t="s">
+      <c r="B26" t="n">
+        <v>9958365.0</v>
+      </c>
+      <c r="C26" t="s">
         <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9934898.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
